--- a/public/excel/compras.xlsx
+++ b/public/excel/compras.xlsx
@@ -11,7 +11,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+  <si>
+    <t>Desde:</t>
+  </si>
+  <si>
+    <t>Principio</t>
+  </si>
+  <si>
+    <t>Hasta:</t>
+  </si>
+  <si>
+    <t>Ahora</t>
+  </si>
   <si>
     <t>Número</t>
   </si>
@@ -34,19 +46,22 @@
     <t>Cancelada</t>
   </si>
   <si>
-    <t>MORENO LUCAS OMAR</t>
+    <t>EQUINOCCIO TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>FET YAMIL DAHER</t>
-  </si>
-  <si>
-    <t>BANFFI FABRICIO</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>FET YAMIL</t>
+  </si>
+  <si>
+    <t>OTRO</t>
+  </si>
+  <si>
+    <t>FET YAMIL 2</t>
   </si>
 </sst>
 </file>
@@ -428,18 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,455 +467,170 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44909.462301921296</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44909.462301921296</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44909.472756585645</v>
+        <v>45065.644017708335</v>
       </c>
       <c r="C3" s="2">
-        <v>44909.472756585645</v>
+        <v>45065.644017708335</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44915.49851376157</v>
+        <v>45065.72351079861</v>
       </c>
       <c r="C4" s="2">
-        <v>44915.49851376157</v>
+        <v>45065.72351079861</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44915.5192634375</v>
+        <v>45065.72589412037</v>
       </c>
       <c r="C5" s="2">
-        <v>44915.5192634375</v>
+        <v>45065.72589412037</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44915.53043675926</v>
+        <v>45070.50657408565</v>
       </c>
       <c r="C6" s="2">
-        <v>44915.53043675926</v>
+        <v>45070.50657408565</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44917.4634134375</v>
+        <v>45070.54770775463</v>
       </c>
       <c r="C7" s="2">
-        <v>44917.4634134375</v>
+        <v>45070.54770775463</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>3000</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44917.46461222222</v>
+        <v>45070.594523865744</v>
       </c>
       <c r="C8" s="2">
-        <v>44917.46461222222</v>
+        <v>45070.594523865744</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44917.46526094907</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44917.46526094907</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>3000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44917.46671587963</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44917.46671587963</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>3000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44917.46706804398</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44917.46706804398</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>6000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45070.703036921295</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45070.703036921295</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>3500</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45070.73385883102</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45070.73385883102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>4000</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45070.73500252315</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45070.73500252315</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>4500</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45070.73615586806</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45070.73615586806</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>3000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45070.73672983796</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45070.73672983796</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>2500</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45070.73727023148</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45070.73727023148</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>2500</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45070.73819993055</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45070.73819993055</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>3000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45070.7389869676</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45070.7389869676</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>5000</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45070.74054175926</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45070.74054175926</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>3000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A2:G2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
